--- a/Generated_Data/Model.Comparison.xlsx
+++ b/Generated_Data/Model.Comparison.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
+  <si>
+    <t>source</t>
+  </si>
   <si>
     <t>WHO_region</t>
   </si>
@@ -29,7 +32,22 @@
     <t>uppr</t>
   </si>
   <si>
-    <t>source</t>
+    <t>r.mean</t>
+  </si>
+  <si>
+    <t>r.lwr</t>
+  </si>
+  <si>
+    <t>r.uppr</t>
+  </si>
+  <si>
+    <t>Economist</t>
+  </si>
+  <si>
+    <t>IHME</t>
+  </si>
+  <si>
+    <t>WHO</t>
   </si>
   <si>
     <t>Global</t>
@@ -51,15 +69,6 @@
   </si>
   <si>
     <t>WPRO</t>
-  </si>
-  <si>
-    <t>Economist</t>
-  </si>
-  <si>
-    <t>IHME</t>
-  </si>
-  <si>
-    <t>WHO</t>
   </si>
 </sst>
 </file>
@@ -129,845 +138,1232 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>12.0</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>5695921.734838915</v>
+        <v>12.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3509198.36278736</v>
+        <v>5697572.0</v>
       </c>
       <c r="E2" t="n">
-        <v>6111421.613419648</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
+        <v>3509198.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6111422.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12.0</v>
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D3" t="n">
         <v>4195055.0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>3020412.0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>6055527.0</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
+      <c r="G3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12.0</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>4471370.594580625</v>
+        <v>12.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3905363.872046613</v>
+        <v>4471371.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5065203.8633111715</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
+        <v>3905364.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5065204.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12.0</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>421408.5945705433</v>
+        <v>12.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-375095.10987634974</v>
+        <v>421813.0</v>
       </c>
       <c r="E5" t="n">
-        <v>622448.2441938188</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
+        <v>-375095.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>622377.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12.0</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D6" t="n">
         <v>276600.0</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>168457.0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>434571.0</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
+      <c r="G6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12.0</v>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>382187.36060560413</v>
+        <v>12.0</v>
       </c>
       <c r="D7" t="n">
-        <v>209699.05186604694</v>
+        <v>369562.0</v>
       </c>
       <c r="E7" t="n">
-        <v>549049.0951878733</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
+        <v>164952.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>563481.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>12.0</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>1338797.8501815698</v>
+        <v>12.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1314987.0879172697</v>
+        <v>1338815.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1349858.6199156826</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
+        <v>1314987.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1349859.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>12.0</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
       <c r="C9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D9" t="n">
         <v>1257563.0</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1054514.0</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1784418.0</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
+      <c r="G9" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>12.0</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>915117.663710521</v>
+        <v>12.0</v>
       </c>
       <c r="D10" t="n">
-        <v>847737.1621223328</v>
+        <v>1368283.0</v>
       </c>
       <c r="E10" t="n">
-        <v>987822.0075661766</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
+        <v>1328129.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1410412.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>12.0</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>851512.6638500084</v>
+        <v>12.0</v>
       </c>
       <c r="D11" t="n">
-        <v>479246.7329207517</v>
+        <v>851737.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1033263.8156387492</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
+        <v>479247.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1033264.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="n">
-        <v>12.0</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
       <c r="C12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D12" t="n">
         <v>520602.0</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>285859.0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>853216.0</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
+      <c r="G12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12.0</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>290107.5228641983</v>
+        <v>12.0</v>
       </c>
       <c r="D13" t="n">
-        <v>256393.92891106696</v>
+        <v>446076.0</v>
       </c>
       <c r="E13" t="n">
-        <v>324932.70991147304</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
+        <v>297920.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>595261.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12.0</v>
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>1329885.6059235812</v>
+        <v>12.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1257763.069034049</v>
+        <v>1329896.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1353931.3147450162</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
+        <v>1257763.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1353931.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="n">
-        <v>12.0</v>
+      <c r="B15" t="s">
+        <v>16</v>
       </c>
       <c r="C15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D15" t="n">
         <v>974776.0</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>770885.0</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1312382.0</v>
       </c>
-      <c r="F15" t="s">
-        <v>14</v>
+      <c r="G15" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="n">
-        <v>12.0</v>
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>1427734.2289635737</v>
+        <v>12.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1199131.1742341788</v>
+        <v>1316962.0</v>
       </c>
       <c r="E16" t="n">
-        <v>1643622.3581373151</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
+        <v>1280911.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1352700.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="n">
-        <v>12.0</v>
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>1503190.4241258644</v>
+        <v>12.0</v>
       </c>
       <c r="D17" t="n">
-        <v>344135.57963825297</v>
+        <v>1504219.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1800910.64911177</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
+        <v>344136.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1800911.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="n">
-        <v>12.0</v>
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
       </c>
       <c r="C18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D18" t="n">
         <v>1118000.0</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>668731.0</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>1767373.0</v>
       </c>
-      <c r="F18" t="s">
-        <v>14</v>
+      <c r="G18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="n">
-        <v>12.0</v>
+      <c r="B19" t="s">
+        <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>1238643.690352014</v>
+        <v>12.0</v>
       </c>
       <c r="D19" t="n">
-        <v>781279.2081778825</v>
+        <v>1204810.0</v>
       </c>
       <c r="E19" t="n">
-        <v>1732311.3657235343</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
+        <v>695574.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1719513.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="n">
-        <v>12.0</v>
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>251514.07135704797</v>
+        <v>12.0</v>
       </c>
       <c r="D20" t="n">
-        <v>-219895.73873083273</v>
+        <v>251479.0</v>
       </c>
       <c r="E20" t="n">
-        <v>637877.6050876055</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
+        <v>-219896.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>637878.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12.0</v>
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
       </c>
       <c r="C21" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D21" t="n">
         <v>45262.0</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>28389.0</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>63881.0</v>
       </c>
-      <c r="F21" t="s">
-        <v>14</v>
+      <c r="G21" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12.0</v>
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>217580.12808471383</v>
+        <v>12.0</v>
       </c>
       <c r="D22" t="n">
-        <v>191295.7354105782</v>
+        <v>-234322.0</v>
       </c>
       <c r="E22" t="n">
-        <v>244826.3720392227</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
+        <v>-253210.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-215661.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="n">
-        <v>24.0</v>
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>1.8209873746190026E7</v>
+        <v>24.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.167317698385699E7</v>
+        <v>1.8212017E7</v>
       </c>
       <c r="E23" t="n">
-        <v>1.9663860046487734E7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
+        <v>1.1673177E7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.966386E7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="n">
-        <v>24.0</v>
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
       </c>
       <c r="C24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D24" t="n">
         <v>1.82E7</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>1.71E7</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.96E7</v>
       </c>
-      <c r="F24" t="s">
-        <v>14</v>
+      <c r="G24" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24.0</v>
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>1.483486606753465E7</v>
+        <v>24.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.3231107260978669E7</v>
+        <v>1.4834866E7</v>
       </c>
       <c r="E25" t="n">
-        <v>1.6580230241679337E7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
+        <v>1.3231107E7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.658023E7</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24.0</v>
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>1498422.1316703171</v>
+        <v>24.0</v>
       </c>
       <c r="D26" t="n">
-        <v>252041.5412680424</v>
+        <v>1498940.0</v>
       </c>
       <c r="E26" t="n">
-        <v>1989448.6331334987</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
+        <v>252042.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1989449.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.64</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="n">
-        <v>24.0</v>
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
       </c>
       <c r="C27" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D27" t="n">
         <v>2090000.0</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>1720000.0</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>2720000.0</v>
       </c>
-      <c r="F27" t="s">
-        <v>14</v>
+      <c r="G27" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="I27" t="n">
+        <v>17.49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="n">
-        <v>24.0</v>
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
       </c>
       <c r="C28" t="n">
-        <v>1296983.2204080436</v>
+        <v>24.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1042584.3184212537</v>
+        <v>1248553.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1574842.1430804066</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
+        <v>909942.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1578048.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.03</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10.15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="n">
-        <v>24.0</v>
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
       </c>
       <c r="C29" t="n">
-        <v>3270570.4703252665</v>
+        <v>24.0</v>
       </c>
       <c r="D29" t="n">
-        <v>3203331.367956925</v>
+        <v>3270583.0</v>
       </c>
       <c r="E29" t="n">
-        <v>3301755.684313033</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
+        <v>3203331.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3301756.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="n">
-        <v>24.0</v>
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
       </c>
       <c r="C30" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D30" t="n">
         <v>4220000.0</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>4000000.0</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>4450000.0</v>
       </c>
-      <c r="F30" t="s">
-        <v>14</v>
+      <c r="G30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="n">
-        <v>24.0</v>
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
       </c>
       <c r="C31" t="n">
-        <v>2790575.50764594</v>
+        <v>24.0</v>
       </c>
       <c r="D31" t="n">
-        <v>2675677.638640169</v>
+        <v>3227943.0</v>
       </c>
       <c r="E31" t="n">
-        <v>2915828.968182669</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
+        <v>3154917.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3298341.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32" t="n">
-        <v>24.0</v>
+      <c r="B32" t="s">
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>2316876.182784275</v>
+        <v>24.0</v>
       </c>
       <c r="D32" t="n">
-        <v>1381984.1528047007</v>
+        <v>2317139.0</v>
       </c>
       <c r="E32" t="n">
-        <v>2776030.0502513023</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
+        <v>1381984.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2776030.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8.93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" t="n">
-        <v>24.0</v>
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
       </c>
       <c r="C33" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D33" t="n">
         <v>2240000.0</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>1900000.0</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>2640000.0</v>
       </c>
-      <c r="F33" t="s">
-        <v>14</v>
+      <c r="G33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8.49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" t="n">
-        <v>24.0</v>
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>804594.4586352143</v>
+        <v>24.0</v>
       </c>
       <c r="D34" t="n">
-        <v>611382.3424405666</v>
+        <v>1075999.0</v>
       </c>
       <c r="E34" t="n">
-        <v>1045335.3507198396</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
+        <v>867866.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1302531.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="n">
-        <v>24.0</v>
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>3369426.5932090147</v>
+        <v>24.0</v>
       </c>
       <c r="D35" t="n">
-        <v>3176117.671082092</v>
+        <v>3369453.0</v>
       </c>
       <c r="E35" t="n">
-        <v>3436708.274349327</v>
-      </c>
-      <c r="F35" t="s">
-        <v>13</v>
+        <v>3176118.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3436708.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" t="n">
-        <v>24.0</v>
+      <c r="B36" t="s">
+        <v>16</v>
       </c>
       <c r="C36" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D36" t="n">
         <v>3700000.0</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>3620000.0</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>3780000.0</v>
       </c>
-      <c r="F36" t="s">
-        <v>14</v>
+      <c r="G36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="n">
-        <v>24.0</v>
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
       </c>
       <c r="C37" t="n">
-        <v>3773865.7168734693</v>
+        <v>24.0</v>
       </c>
       <c r="D37" t="n">
-        <v>3416089.699972726</v>
+        <v>3180157.0</v>
       </c>
       <c r="E37" t="n">
-        <v>4147176.9773067324</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
+        <v>3125695.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3239004.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="n">
-        <v>24.0</v>
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
       </c>
       <c r="C38" t="n">
-        <v>6535209.401428867</v>
+        <v>24.0</v>
       </c>
       <c r="D38" t="n">
-        <v>2188371.4066435117</v>
+        <v>6536571.0</v>
       </c>
       <c r="E38" t="n">
-        <v>8575345.058884647</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
+        <v>2188371.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8575345.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="n">
-        <v>24.0</v>
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
       </c>
       <c r="C39" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D39" t="n">
         <v>5500000.0</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>5100000.0</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>5930000.0</v>
       </c>
-      <c r="F39" t="s">
-        <v>14</v>
+      <c r="G39" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8.22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" t="n">
-        <v>24.0</v>
+      <c r="B40" t="s">
+        <v>17</v>
       </c>
       <c r="C40" t="n">
-        <v>5622074.451660058</v>
+        <v>24.0</v>
       </c>
       <c r="D40" t="n">
-        <v>4197882.772575964</v>
+        <v>5982010.0</v>
       </c>
       <c r="E40" t="n">
-        <v>7368129.693127254</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
+        <v>4526314.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7745465.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8.29</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10.74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="n">
-        <v>24.0</v>
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
       </c>
       <c r="C41" t="n">
-        <v>1204977.5151865755</v>
+        <v>24.0</v>
       </c>
       <c r="D41" t="n">
-        <v>173047.05087611027</v>
+        <v>1204939.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1955138.0063147775</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
+        <v>173047.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1955138.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12.66</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="n">
-        <v>24.0</v>
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
       </c>
       <c r="C42" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D42" t="n">
         <v>462000.0</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>416000.0</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>523000.0</v>
       </c>
-      <c r="F42" t="s">
-        <v>14</v>
+      <c r="G42" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" t="n">
-        <v>24.0</v>
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
       </c>
       <c r="C43" t="n">
-        <v>546772.7123119256</v>
+        <v>24.0</v>
       </c>
       <c r="D43" t="n">
-        <v>503093.4429309793</v>
+        <v>120205.0</v>
       </c>
       <c r="E43" t="n">
-        <v>592105.5924628649</v>
-      </c>
-      <c r="F43" t="s">
-        <v>15</v>
+        <v>-69744.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>352798.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.28</v>
       </c>
     </row>
   </sheetData>
